--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
@@ -64,25 +67,22 @@
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>shame</t>
@@ -91,15 +91,18 @@
     <t>low</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
@@ -109,21 +112,12 @@
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -139,192 +133,195 @@
     <t>beauty</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>well</t>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>alert</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>share</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>health</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -337,10 +334,10 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>food</t>
@@ -707,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -829,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -847,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -897,16 +894,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9615384615384616</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -994,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.9545454545454546</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1026,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.708904109589041</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1126,37 +1123,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L10">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L10">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1176,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>0.8888888888888888</v>
@@ -1226,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5263157894736842</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>0.875</v>
@@ -1276,49 +1273,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5128205128205128</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>0.84375</v>
+      </c>
+      <c r="L13">
+        <v>108</v>
+      </c>
+      <c r="M13">
+        <v>108</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>20</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>19</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L13">
-        <v>70</v>
-      </c>
-      <c r="M13">
-        <v>70</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1323,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.828125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4871794871794872</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.8214285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4814814814814815</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.8125</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1497,16 +1494,16 @@
         <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.8083333333333333</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1523,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4054054054054054</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L18">
         <v>22</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L18">
-        <v>29</v>
-      </c>
       <c r="M18">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1597,16 +1594,16 @@
         <v>91</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.8028169014084507</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1623,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3733333333333334</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1673,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3611111111111111</v>
+        <v>0.36</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1726,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3546511627906977</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C22">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D22">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1773,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3050847457627119</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7413793103448276</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1818,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2962962962962963</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,19 +1841,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.73125</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L24">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1868,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1873,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2857142857142857</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.7264150943396226</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L25">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M25">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1918,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2745098039215687</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.7021276595744681</v>
+        <v>0.73125</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2727272727272727</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,19 +1991,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6984126984126984</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2018,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2372881355932203</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2044,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2068,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,13 +2073,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2111111111111111</v>
+        <v>0.175</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2094,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6944444444444444</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2118,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,13 +2123,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1746031746031746</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,119 +2141,71 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>24</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.6475195822454308</v>
+      </c>
+      <c r="L31">
+        <v>248</v>
+      </c>
+      <c r="M31">
+        <v>248</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K30">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L30">
-        <v>64</v>
-      </c>
-      <c r="M30">
-        <v>64</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.1625</v>
-      </c>
-      <c r="C31">
-        <v>13</v>
-      </c>
-      <c r="D31">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>67</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L31">
-        <v>32</v>
-      </c>
-      <c r="M31">
-        <v>32</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.09946236559139784</v>
-      </c>
-      <c r="C32">
-        <v>37</v>
-      </c>
-      <c r="D32">
-        <v>38</v>
-      </c>
-      <c r="E32">
-        <v>0.03</v>
-      </c>
-      <c r="F32">
-        <v>0.97</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>335</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K32">
-        <v>0.6449086161879896</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L32">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2268,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.6060606060606061</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2294,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2320,21 +2269,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.5882352941176471</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.5882352941176471</v>
+        <v>0.575</v>
       </c>
       <c r="L36">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2372,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.5813953488372093</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2398,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2424,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.5714285714285714</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2450,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.5600000000000001</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2476,12 +2425,12 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K41">
         <v>0.5483870967741935</v>
@@ -2507,16 +2456,16 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K42">
-        <v>0.5322033898305085</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L42">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2528,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K43">
-        <v>0.5280898876404494</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2554,21 +2503,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2580,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>0.4888888888888889</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2606,21 +2555,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K46">
-        <v>0.4857142857142857</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2632,47 +2581,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K47">
-        <v>0.4644351464435146</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L47">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K48">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2684,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2710,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.4523809523809524</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2736,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.4358974358974359</v>
+        <v>0.45</v>
       </c>
       <c r="L51">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2762,21 +2711,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.410958904109589</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2788,21 +2737,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2814,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K54">
-        <v>0.3617021276595745</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2840,21 +2789,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K55">
-        <v>0.3428571428571429</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2866,21 +2815,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K56">
-        <v>0.2950819672131147</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2892,21 +2841,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K57">
-        <v>0.2361111111111111</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2918,21 +2867,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K58">
-        <v>0.1259842519685039</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2944,21 +2893,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>0.1244019138755981</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L59">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2970,21 +2919,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>366</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K60">
-        <v>0.1068702290076336</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2996,47 +2945,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K61">
-        <v>0.09813084112149532</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>193</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K62">
-        <v>0.09767441860465116</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3048,21 +2997,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>194</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K63">
-        <v>0.08588957055214724</v>
+        <v>0.09375</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3074,21 +3023,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>149</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K64">
-        <v>0.08413461538461539</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3100,21 +3049,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>381</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K65">
-        <v>0.0755813953488372</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3126,21 +3075,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K66">
-        <v>0.06956521739130435</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3152,21 +3101,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K67">
-        <v>0.06040268456375839</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L67">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3178,21 +3127,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>840</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K68">
-        <v>0.0581039755351682</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3204,21 +3153,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>308</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K69">
-        <v>0.03551609322974473</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="L69">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3230,21 +3179,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>869</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K70">
-        <v>0.03230769230769231</v>
+        <v>0.04328523862375139</v>
       </c>
       <c r="L70">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M70">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3256,73 +3205,73 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>629</v>
+        <v>862</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K71">
-        <v>0.0265282583621684</v>
+        <v>0.04006163328197226</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>844</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K72">
-        <v>0.02382064455861747</v>
+        <v>0.03414405986903649</v>
       </c>
       <c r="L72">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M72">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>2090</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K73">
-        <v>0.01446280991735537</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3334,59 +3283,85 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>954</v>
+        <v>840</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K74">
-        <v>0.01353965183752418</v>
+        <v>0.01654601861427094</v>
       </c>
       <c r="L74">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N74">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>3060</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K75">
-        <v>0.007210031347962382</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N75">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="O75">
-        <v>0.32</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>3167</v>
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K76">
+        <v>0.006578947368421052</v>
+      </c>
+      <c r="L76">
+        <v>21</v>
+      </c>
+      <c r="M76">
+        <v>30</v>
+      </c>
+      <c r="N76">
+        <v>0.7</v>
+      </c>
+      <c r="O76">
+        <v>0.3</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3171</v>
       </c>
     </row>
   </sheetData>
